--- a/data/not_in_use/talk.xlsx
+++ b/data/not_in_use/talk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Box\JY\blogging\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B778B2FF-CDA2-4E70-88D4-A7D1A670337A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FC601B5-BEBE-475D-B842-5652498E503B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -1069,11 +1069,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1175,13 +1184,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="E7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="65" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
